--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Study\TestNGUsingDataDrivenFramework\TestNGUsingDataDrivenFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CE5036-ACEB-4FB5-9AF5-6D61746B6F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0E5565-5A2C-4E8B-9A1F-7ADF8EEE8D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Scenarios</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>Magazzini Alimentari Riuniti</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +186,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -471,24 +474,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7" collapsed="1"/>
     <col min="2" max="2" width="100.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -496,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -504,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -512,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -520,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -528,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -536,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -544,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -552,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -560,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -568,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -593,12 +598,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -606,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -620,51 +625,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BB547D-C4B0-495A-BA03-C6FCE40D0A27}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -680,12 +685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
